--- a/biology/Zoologie/Calospila/Calospila.xlsx
+++ b/biology/Zoologie/Calospila/Calospila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila est un genre de lépidoptères (papillons) de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Calospila leur a été donné par Carl Geyer en 1832.
 </t>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calospila antonii Brévignon, 1995;  présent en Guyane.
 Calospila apotheta (Bates, 1868);  présent en Guyane, en Guyana,  au Surinam, en Colombie et au Brésil.
 Calospila asteria (Stichel, 1911); présent au Costa Rica et en Colombie.
 Calospila byzeres (Hewitson, 1872); présent au Brésil.
 Calospila candace (Druce, 1904); présent au Brésil.
-Calospila cerealis (Hewitson, [1863]); présent au Brésil.
-Calospila cilissa (Hewitson, [1863]); présent au Nicaragua, Honduras et en Colombie.
+Calospila cerealis (Hewitson, ); présent au Brésil.
+Calospila cilissa (Hewitson, ); présent au Nicaragua, Honduras et en Colombie.
 Calospila cuprea (Butler, 1867); présent au Brésil.
 Calospila emylius (Cramer, 1775); présent en Guyane, en Guyana,  au Surinam,  à Trinité-et-Tobago, en Bolivie, au Brésil et au Pérou.
 Calospila fannia (Godman, 1903); présent en Guyana.
@@ -568,14 +584,14 @@
 Calospila parthaon (Dalman, 1823); présent au Brésil.
 Calospila pelarge (Godman &amp; Salvin, 1878); présent au Mexique, à Panama et au Guatemala.
 Calospila pirene (Godman, 1903); présent au Pérou.
-Calospila rhesa (Hewitson, [1858]); présent au Brésil.
+Calospila rhesa (Hewitson, ); présent au Brésil.
 Calospila rhodope (Hewitson, 1853); présent en Guyane, en Guyana, au Surinam,  à Trinité-et-Tobago, au Brésil, en  Équateur et au Pérou.
 Calospila satyroides (Lathy, 1932); présent en Guyana.
-Calospila siaka (Hewitson, [1858]); présent au Brésil.
+Calospila siaka (Hewitson, ); présent au Brésil.
 Calospila simplaris (Stichel, 1911); présent au Brésil.
-Calospila thara (Hewitson, [1858]); présent en Guyane, en Guyana,  au Surinam, au Brésil, en  Équateur et au Pérou.
+Calospila thara (Hewitson, ); présent en Guyane, en Guyana,  au Surinam, au Brésil, en  Équateur et au Pérou.
 Calospila urichi (May, 1972); à Trinité-et-Tobago
-Calospila zeanger (Stoll, [1790]); présent en Guyane, en Guyana,  au Surinam et  à Trinité-et-Tobago</t>
+Calospila zeanger (Stoll, ); présent en Guyane, en Guyana,  au Surinam et  à Trinité-et-Tobago</t>
         </is>
       </c>
     </row>
